--- a/input_sample/M18025715H_input_sample.xlsx
+++ b/input_sample/M18025715H_input_sample.xlsx
@@ -412,7 +412,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -476,39 +476,7 @@
       <c r="B2">
         <v>1307.8</v>
       </c>
-      <c r="C2">
-        <v>45.472099999999998</v>
-      </c>
-      <c r="D2">
-        <v>13737</v>
-      </c>
-      <c r="E2">
-        <v>980</v>
-      </c>
-      <c r="F2">
-        <v>1277.9000000000001</v>
-      </c>
-      <c r="G2">
-        <v>19.237400000000001</v>
-      </c>
-      <c r="H2">
-        <v>7.1509999999999998</v>
-      </c>
-      <c r="I2">
-        <v>746.42</v>
-      </c>
-      <c r="J2">
-        <v>1508.12</v>
-      </c>
-      <c r="K2" s="1">
-        <v>206600</v>
-      </c>
-      <c r="L2">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="M2">
-        <v>6.3E-3</v>
-      </c>
+      <c r="K2" s="1"/>
       <c r="N2">
         <v>35.36</v>
       </c>
@@ -520,39 +488,7 @@
       <c r="B3">
         <v>1307.8</v>
       </c>
-      <c r="C3">
-        <v>19.237400000000001</v>
-      </c>
-      <c r="D3">
-        <v>11939</v>
-      </c>
-      <c r="E3">
-        <v>963</v>
-      </c>
-      <c r="F3">
-        <v>1277.9000000000001</v>
-      </c>
-      <c r="G3">
-        <v>8.9603000000000002</v>
-      </c>
-      <c r="H3">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I3">
-        <v>737.68</v>
-      </c>
-      <c r="J3">
-        <v>1500.41</v>
-      </c>
-      <c r="K3" s="1">
-        <v>206300</v>
-      </c>
-      <c r="L3">
-        <v>2.6</v>
-      </c>
-      <c r="M3">
-        <v>6.3E-3</v>
-      </c>
+      <c r="K3" s="1"/>
       <c r="N3">
         <v>22.81</v>
       </c>
@@ -564,39 +500,7 @@
       <c r="B4">
         <v>1307.8</v>
       </c>
-      <c r="C4">
-        <v>8.9603000000000002</v>
-      </c>
-      <c r="D4">
-        <v>11055</v>
-      </c>
-      <c r="E4">
-        <v>948</v>
-      </c>
-      <c r="F4">
-        <v>1277.9000000000001</v>
-      </c>
-      <c r="G4">
-        <v>5.9790999999999999</v>
-      </c>
-      <c r="H4">
-        <v>9.1240000000000006</v>
-      </c>
-      <c r="I4">
-        <v>728.57</v>
-      </c>
-      <c r="J4">
-        <v>1525.99</v>
-      </c>
-      <c r="K4" s="1">
-        <v>206000</v>
-      </c>
-      <c r="L4">
-        <v>11.34</v>
-      </c>
-      <c r="M4">
-        <v>6.3E-3</v>
-      </c>
+      <c r="K4" s="1"/>
       <c r="N4">
         <v>-9.11</v>
       </c>
@@ -608,39 +512,7 @@
       <c r="B5">
         <v>1307.8</v>
       </c>
-      <c r="C5">
-        <v>5.9790999999999999</v>
-      </c>
-      <c r="D5">
-        <v>10748</v>
-      </c>
-      <c r="E5">
-        <v>932</v>
-      </c>
-      <c r="F5">
-        <v>1277.9000000000001</v>
-      </c>
-      <c r="G5">
-        <v>4.3009000000000004</v>
-      </c>
-      <c r="H5">
-        <v>11.3</v>
-      </c>
-      <c r="I5">
-        <v>716.47</v>
-      </c>
-      <c r="J5">
-        <v>1496.49</v>
-      </c>
-      <c r="K5" s="1">
-        <v>205500</v>
-      </c>
-      <c r="L5">
-        <v>20.57</v>
-      </c>
-      <c r="M5">
-        <v>6.3E-3</v>
-      </c>
+      <c r="K5" s="1"/>
       <c r="N5">
         <v>-3.85</v>
       </c>
@@ -652,39 +524,7 @@
       <c r="B6">
         <v>1307.8</v>
       </c>
-      <c r="C6">
-        <v>4.3009000000000004</v>
-      </c>
-      <c r="D6">
-        <v>9073</v>
-      </c>
-      <c r="E6">
-        <v>918</v>
-      </c>
-      <c r="F6">
-        <v>1277.9000000000001</v>
-      </c>
-      <c r="G6">
-        <v>3.3959000000000001</v>
-      </c>
-      <c r="H6">
-        <v>13.2</v>
-      </c>
-      <c r="I6">
-        <v>667.28</v>
-      </c>
-      <c r="J6">
-        <v>1471.21</v>
-      </c>
-      <c r="K6" s="1">
-        <v>199000</v>
-      </c>
-      <c r="L6">
-        <v>29.3</v>
-      </c>
-      <c r="M6">
-        <v>6.3E-3</v>
-      </c>
+      <c r="K6" s="1"/>
       <c r="N6">
         <v>-30.4</v>
       </c>
@@ -696,39 +536,7 @@
       <c r="B7">
         <v>1307.8</v>
       </c>
-      <c r="C7">
-        <v>3.3959000000000001</v>
-      </c>
-      <c r="D7">
-        <v>7370</v>
-      </c>
-      <c r="E7">
-        <v>902</v>
-      </c>
-      <c r="F7">
-        <v>1277.9000000000001</v>
-      </c>
-      <c r="G7">
-        <v>2.8572000000000002</v>
-      </c>
-      <c r="H7">
-        <v>14.6</v>
-      </c>
-      <c r="I7">
-        <v>674.57</v>
-      </c>
-      <c r="J7">
-        <v>1498.27</v>
-      </c>
-      <c r="K7" s="1">
-        <v>198500</v>
-      </c>
-      <c r="L7">
-        <v>30.29</v>
-      </c>
-      <c r="M7">
-        <v>6.3E-3</v>
-      </c>
+      <c r="K7" s="1"/>
       <c r="N7">
         <v>0</v>
       </c>
@@ -740,39 +548,7 @@
       <c r="B8">
         <v>1307.8</v>
       </c>
-      <c r="C8">
-        <v>2.8572000000000002</v>
-      </c>
-      <c r="D8">
-        <v>6733</v>
-      </c>
-      <c r="E8">
-        <v>883</v>
-      </c>
-      <c r="F8">
-        <v>1277.9000000000001</v>
-      </c>
-      <c r="G8">
-        <v>2.5297000000000001</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>669.65</v>
-      </c>
-      <c r="J8">
-        <v>1477.21</v>
-      </c>
-      <c r="K8" s="1">
-        <v>198800</v>
-      </c>
-      <c r="L8">
-        <v>30.23</v>
-      </c>
-      <c r="M8">
-        <v>6.3E-3</v>
-      </c>
+      <c r="K8" s="1"/>
       <c r="N8">
         <v>0</v>
       </c>
